--- a/data/pca/factorExposure/factorExposure_2012-04-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-24.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01688553619360695</v>
+        <v>-0.0161604458164151</v>
       </c>
       <c r="C2">
-        <v>-0.03518717583412548</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02808718992120022</v>
+      </c>
+      <c r="D2">
+        <v>-0.00377359824339378</v>
+      </c>
+      <c r="E2">
+        <v>0.007741648997863945</v>
+      </c>
+      <c r="F2">
+        <v>-0.008963552293035484</v>
+      </c>
+      <c r="G2">
+        <v>-2.008911028830305e-05</v>
+      </c>
+      <c r="H2">
+        <v>-0.05550893758069166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07614506691891973</v>
+        <v>-0.08708053256929731</v>
       </c>
       <c r="C4">
-        <v>-0.05585914962829096</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03849685859618355</v>
+      </c>
+      <c r="D4">
+        <v>-0.06849986300091181</v>
+      </c>
+      <c r="E4">
+        <v>0.007238964658348913</v>
+      </c>
+      <c r="F4">
+        <v>-0.03132132364577637</v>
+      </c>
+      <c r="G4">
+        <v>-0.007035232965083018</v>
+      </c>
+      <c r="H4">
+        <v>0.04529698399241124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1068216364645198</v>
+        <v>-0.1186044730500972</v>
       </c>
       <c r="C6">
-        <v>-0.05390443537098073</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03329070802232472</v>
+      </c>
+      <c r="D6">
+        <v>-0.01010779356232475</v>
+      </c>
+      <c r="E6">
+        <v>-0.002760884254252219</v>
+      </c>
+      <c r="F6">
+        <v>-0.05930853883326861</v>
+      </c>
+      <c r="G6">
+        <v>-0.02478556688143786</v>
+      </c>
+      <c r="H6">
+        <v>-0.07627197734877986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05000384994879287</v>
+        <v>-0.06293995262037613</v>
       </c>
       <c r="C7">
-        <v>-0.02748150321301551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.01922656208374314</v>
+      </c>
+      <c r="D7">
+        <v>-0.04442373862816015</v>
+      </c>
+      <c r="E7">
+        <v>0.03019261393055259</v>
+      </c>
+      <c r="F7">
+        <v>-0.04125811271880104</v>
+      </c>
+      <c r="G7">
+        <v>0.03786162107994772</v>
+      </c>
+      <c r="H7">
+        <v>0.02638124036354875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03649350798284224</v>
+        <v>-0.04043344420528031</v>
       </c>
       <c r="C8">
-        <v>-0.01213900349774276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.005712288499536429</v>
+      </c>
+      <c r="D8">
+        <v>-0.032689978016925</v>
+      </c>
+      <c r="E8">
+        <v>0.02030337719009792</v>
+      </c>
+      <c r="F8">
+        <v>-0.04195733462164433</v>
+      </c>
+      <c r="G8">
+        <v>-0.03224556957318308</v>
+      </c>
+      <c r="H8">
+        <v>0.00484509854642881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06816319126231561</v>
+        <v>-0.07765862984979671</v>
       </c>
       <c r="C9">
-        <v>-0.04535219676975566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02874101435106221</v>
+      </c>
+      <c r="D9">
+        <v>-0.06419326656905465</v>
+      </c>
+      <c r="E9">
+        <v>0.0263997741726603</v>
+      </c>
+      <c r="F9">
+        <v>-0.0364007263008008</v>
+      </c>
+      <c r="G9">
+        <v>-0.01034569454274457</v>
+      </c>
+      <c r="H9">
+        <v>0.05853998387264379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02965739700497901</v>
+        <v>-0.03658889270993471</v>
       </c>
       <c r="C10">
-        <v>-0.03479731364345859</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04198808971932414</v>
+      </c>
+      <c r="D10">
+        <v>0.173084074025197</v>
+      </c>
+      <c r="E10">
+        <v>0.05317540460832292</v>
+      </c>
+      <c r="F10">
+        <v>-0.04576135974134544</v>
+      </c>
+      <c r="G10">
+        <v>0.03773560272462509</v>
+      </c>
+      <c r="H10">
+        <v>-0.03483255942100687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07151475433679606</v>
+        <v>-0.07583797559941086</v>
       </c>
       <c r="C11">
-        <v>-0.04623415769990195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02660434176493051</v>
+      </c>
+      <c r="D11">
+        <v>-0.06101530820061556</v>
+      </c>
+      <c r="E11">
+        <v>-0.007849194361336674</v>
+      </c>
+      <c r="F11">
+        <v>-0.02333799224342968</v>
+      </c>
+      <c r="G11">
+        <v>-0.0004577945035248828</v>
+      </c>
+      <c r="H11">
+        <v>0.09568578718317562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05753926735094363</v>
+        <v>-0.06532718587770249</v>
       </c>
       <c r="C12">
-        <v>-0.04987241455537009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03490237369083818</v>
+      </c>
+      <c r="D12">
+        <v>-0.04840818895537613</v>
+      </c>
+      <c r="E12">
+        <v>0.01246135229744073</v>
+      </c>
+      <c r="F12">
+        <v>-0.01794484314445712</v>
+      </c>
+      <c r="G12">
+        <v>-0.004064744197481159</v>
+      </c>
+      <c r="H12">
+        <v>0.05742746475896982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.061396363748866</v>
+        <v>-0.06620855014108926</v>
       </c>
       <c r="C13">
-        <v>-0.04227472602910292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02527848801375254</v>
+      </c>
+      <c r="D13">
+        <v>-0.04408479689995559</v>
+      </c>
+      <c r="E13">
+        <v>0.009101521713502404</v>
+      </c>
+      <c r="F13">
+        <v>-0.002709257895596279</v>
+      </c>
+      <c r="G13">
+        <v>0.001983652942978748</v>
+      </c>
+      <c r="H13">
+        <v>0.06006348243574797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03243112267770224</v>
+        <v>-0.04006956305639347</v>
       </c>
       <c r="C14">
-        <v>-0.03018349063944297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02530622808123728</v>
+      </c>
+      <c r="D14">
+        <v>-0.005825300556162953</v>
+      </c>
+      <c r="E14">
+        <v>0.02137726843004693</v>
+      </c>
+      <c r="F14">
+        <v>-0.01591435205587216</v>
+      </c>
+      <c r="G14">
+        <v>-0.01601915308147187</v>
+      </c>
+      <c r="H14">
+        <v>0.05842805913571648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03906882911381282</v>
+        <v>-0.03930729628523916</v>
       </c>
       <c r="C15">
-        <v>-0.01069708333746208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.002735277966571595</v>
+      </c>
+      <c r="D15">
+        <v>-0.005688564921848828</v>
+      </c>
+      <c r="E15">
+        <v>0.04461824379581478</v>
+      </c>
+      <c r="F15">
+        <v>0.004562075763233033</v>
+      </c>
+      <c r="G15">
+        <v>-0.02734103870172956</v>
+      </c>
+      <c r="H15">
+        <v>0.04497682716335744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06078037383664671</v>
+        <v>-0.06871175751739754</v>
       </c>
       <c r="C16">
-        <v>-0.04178026347156791</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02715762118953264</v>
+      </c>
+      <c r="D16">
+        <v>-0.06089863750599385</v>
+      </c>
+      <c r="E16">
+        <v>0.00522748827000982</v>
+      </c>
+      <c r="F16">
+        <v>-0.02306286139009799</v>
+      </c>
+      <c r="G16">
+        <v>-0.0003874069379963892</v>
+      </c>
+      <c r="H16">
+        <v>0.06119100295293062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06478250171649412</v>
+        <v>-0.06434600845717481</v>
       </c>
       <c r="C20">
-        <v>-0.03236654540169907</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01351402542135976</v>
+      </c>
+      <c r="D20">
+        <v>-0.04406891702489197</v>
+      </c>
+      <c r="E20">
+        <v>0.02197638365139558</v>
+      </c>
+      <c r="F20">
+        <v>-0.01987233595971377</v>
+      </c>
+      <c r="G20">
+        <v>-0.00762875498644419</v>
+      </c>
+      <c r="H20">
+        <v>0.05972339519311975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02371640946975417</v>
+        <v>-0.02266657936510245</v>
       </c>
       <c r="C21">
-        <v>0.004257713277979342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01201220568714288</v>
+      </c>
+      <c r="D21">
+        <v>-0.03931109079441138</v>
+      </c>
+      <c r="E21">
+        <v>0.06832081406269665</v>
+      </c>
+      <c r="F21">
+        <v>0.02140250172828751</v>
+      </c>
+      <c r="G21">
+        <v>-0.01400089299190523</v>
+      </c>
+      <c r="H21">
+        <v>-0.04881751002468481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.074611280999555</v>
+        <v>-0.06767939715170897</v>
       </c>
       <c r="C22">
-        <v>-0.06099684074450543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03456491956303191</v>
+      </c>
+      <c r="D22">
+        <v>-0.09325327344511926</v>
+      </c>
+      <c r="E22">
+        <v>0.6006649258027094</v>
+      </c>
+      <c r="F22">
+        <v>0.181805642648356</v>
+      </c>
+      <c r="G22">
+        <v>0.0344106967416431</v>
+      </c>
+      <c r="H22">
+        <v>-0.1641439387563447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07558036227780697</v>
+        <v>-0.06828015890556181</v>
       </c>
       <c r="C23">
-        <v>-0.05991849978718964</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03327044023521859</v>
+      </c>
+      <c r="D23">
+        <v>-0.09425597763400932</v>
+      </c>
+      <c r="E23">
+        <v>0.5999336058682518</v>
+      </c>
+      <c r="F23">
+        <v>0.180878664139427</v>
+      </c>
+      <c r="G23">
+        <v>0.03266574072729445</v>
+      </c>
+      <c r="H23">
+        <v>-0.1599714706291147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07002335443881907</v>
+        <v>-0.07881011129624002</v>
       </c>
       <c r="C24">
-        <v>-0.0496349547360465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03248374958038704</v>
+      </c>
+      <c r="D24">
+        <v>-0.05921247053959214</v>
+      </c>
+      <c r="E24">
+        <v>0.01247029601448414</v>
+      </c>
+      <c r="F24">
+        <v>-0.03195448101881961</v>
+      </c>
+      <c r="G24">
+        <v>-0.009613379047781293</v>
+      </c>
+      <c r="H24">
+        <v>0.06897474238208588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07058417640848916</v>
+        <v>-0.07681632688347324</v>
       </c>
       <c r="C25">
-        <v>-0.05549617975624161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03707427529857075</v>
+      </c>
+      <c r="D25">
+        <v>-0.05250785981352506</v>
+      </c>
+      <c r="E25">
+        <v>0.01468234870283258</v>
+      </c>
+      <c r="F25">
+        <v>-0.0259559475980588</v>
+      </c>
+      <c r="G25">
+        <v>-0.02150004618079283</v>
+      </c>
+      <c r="H25">
+        <v>0.07280315724523823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04580373088329777</v>
+        <v>-0.04739518171128094</v>
       </c>
       <c r="C26">
-        <v>-0.009882843462216743</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.0007161317324445115</v>
+      </c>
+      <c r="D26">
+        <v>-0.02094289273644236</v>
+      </c>
+      <c r="E26">
+        <v>0.0423455585444299</v>
+      </c>
+      <c r="F26">
+        <v>-0.02171505345825363</v>
+      </c>
+      <c r="G26">
+        <v>0.0008887411294082633</v>
+      </c>
+      <c r="H26">
+        <v>0.06048773558528001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05711890339757492</v>
+        <v>-0.06907590607392626</v>
       </c>
       <c r="C28">
-        <v>-0.07357785446824222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.08225345893565762</v>
+      </c>
+      <c r="D28">
+        <v>0.3074049338133197</v>
+      </c>
+      <c r="E28">
+        <v>0.03507904549935507</v>
+      </c>
+      <c r="F28">
+        <v>-0.05373118691715056</v>
+      </c>
+      <c r="G28">
+        <v>-0.02397301594467001</v>
+      </c>
+      <c r="H28">
+        <v>-0.03685618464949538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0404552899557383</v>
+        <v>-0.04748017212703853</v>
       </c>
       <c r="C29">
-        <v>-0.03032893483746072</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02356552439621577</v>
+      </c>
+      <c r="D29">
+        <v>-0.006014823948404242</v>
+      </c>
+      <c r="E29">
+        <v>0.04793761928039417</v>
+      </c>
+      <c r="F29">
+        <v>-0.003005300970752584</v>
+      </c>
+      <c r="G29">
+        <v>-0.00158703487891093</v>
+      </c>
+      <c r="H29">
+        <v>0.08495609241393165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1253857642822286</v>
+        <v>-0.1336450918745765</v>
       </c>
       <c r="C30">
-        <v>-0.09322449773306418</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.0582974631051172</v>
+      </c>
+      <c r="D30">
+        <v>-0.08593428375779812</v>
+      </c>
+      <c r="E30">
+        <v>0.0453037199161994</v>
+      </c>
+      <c r="F30">
+        <v>-0.004165065522786427</v>
+      </c>
+      <c r="G30">
+        <v>-0.04454107831565677</v>
+      </c>
+      <c r="H30">
+        <v>-0.01658939986776735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04190108415494841</v>
+        <v>-0.04764572039983259</v>
       </c>
       <c r="C31">
-        <v>-0.01903245940678207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01075447478171145</v>
+      </c>
+      <c r="D31">
+        <v>-0.02499673358941997</v>
+      </c>
+      <c r="E31">
+        <v>0.02631613137019694</v>
+      </c>
+      <c r="F31">
+        <v>-0.01283028799484887</v>
+      </c>
+      <c r="G31">
+        <v>0.0163039616701152</v>
+      </c>
+      <c r="H31">
+        <v>0.07338671297247439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03724058703404924</v>
+        <v>-0.03685069765889799</v>
       </c>
       <c r="C32">
-        <v>-0.02155850662496116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01440802279189793</v>
+      </c>
+      <c r="D32">
+        <v>-0.009927264993948434</v>
+      </c>
+      <c r="E32">
+        <v>0.06604936781148708</v>
+      </c>
+      <c r="F32">
+        <v>0.006266010532423779</v>
+      </c>
+      <c r="G32">
+        <v>-0.04195849750418795</v>
+      </c>
+      <c r="H32">
+        <v>0.07141744718475701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08120866235949238</v>
+        <v>-0.09422623455626594</v>
       </c>
       <c r="C33">
-        <v>-0.0436085405865051</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02667176205096959</v>
+      </c>
+      <c r="D33">
+        <v>-0.05290148297500151</v>
+      </c>
+      <c r="E33">
+        <v>0.01751534432225635</v>
+      </c>
+      <c r="F33">
+        <v>-0.002529978087035487</v>
+      </c>
+      <c r="G33">
+        <v>0.006531657893182254</v>
+      </c>
+      <c r="H33">
+        <v>0.07498477920061708</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05581849488951254</v>
+        <v>-0.06036190134812283</v>
       </c>
       <c r="C34">
-        <v>-0.0277921080783667</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01271765353439529</v>
+      </c>
+      <c r="D34">
+        <v>-0.05238506359960092</v>
+      </c>
+      <c r="E34">
+        <v>0.006380715873438461</v>
+      </c>
+      <c r="F34">
+        <v>-0.0143376417100713</v>
+      </c>
+      <c r="G34">
+        <v>-0.00914831834350812</v>
+      </c>
+      <c r="H34">
+        <v>0.058898859410616</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0379097790073876</v>
+        <v>-0.04160537016363786</v>
       </c>
       <c r="C35">
-        <v>-0.008456956143340029</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.001617196049400605</v>
+      </c>
+      <c r="D35">
+        <v>-0.007208446122806512</v>
+      </c>
+      <c r="E35">
+        <v>0.02262490782212467</v>
+      </c>
+      <c r="F35">
+        <v>0.01023349844762871</v>
+      </c>
+      <c r="G35">
+        <v>0.007792741294685402</v>
+      </c>
+      <c r="H35">
+        <v>0.03844663096947332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02054887783441202</v>
+        <v>-0.02672286833733368</v>
       </c>
       <c r="C36">
-        <v>-0.01702062992553348</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01286563803182907</v>
+      </c>
+      <c r="D36">
+        <v>-0.0145320258279046</v>
+      </c>
+      <c r="E36">
+        <v>0.04064434817648288</v>
+      </c>
+      <c r="F36">
+        <v>-0.01693810755621208</v>
+      </c>
+      <c r="G36">
+        <v>0.006536653281520957</v>
+      </c>
+      <c r="H36">
+        <v>0.05434161733048966</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04063218778421165</v>
+        <v>-0.04336650662102944</v>
       </c>
       <c r="C38">
-        <v>-0.003741890964165462</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.001991215716512776</v>
+      </c>
+      <c r="D38">
+        <v>-0.01546077584950716</v>
+      </c>
+      <c r="E38">
+        <v>0.06078621160226023</v>
+      </c>
+      <c r="F38">
+        <v>0.015756589896086</v>
+      </c>
+      <c r="G38">
+        <v>-0.01771438833798621</v>
+      </c>
+      <c r="H38">
+        <v>0.02705198844326414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09394052743387053</v>
+        <v>-0.1044782486374016</v>
       </c>
       <c r="C39">
-        <v>-0.07293880970347168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.04842675023275082</v>
+      </c>
+      <c r="D39">
+        <v>-0.06852989948607559</v>
+      </c>
+      <c r="E39">
+        <v>-0.01088202977041419</v>
+      </c>
+      <c r="F39">
+        <v>-0.009998492226164554</v>
+      </c>
+      <c r="G39">
+        <v>-0.03196349298265583</v>
+      </c>
+      <c r="H39">
+        <v>0.06817977302016846</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07398767318687567</v>
+        <v>-0.07264462163645866</v>
       </c>
       <c r="C40">
-        <v>-0.04062348262087155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.020092787058889</v>
+      </c>
+      <c r="D40">
+        <v>-0.006856903915652217</v>
+      </c>
+      <c r="E40">
+        <v>0.01552092797998749</v>
+      </c>
+      <c r="F40">
+        <v>0.05171243850764812</v>
+      </c>
+      <c r="G40">
+        <v>-0.03768867873919322</v>
+      </c>
+      <c r="H40">
+        <v>-0.06145765807543593</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04002951977684224</v>
+        <v>-0.04359226957568723</v>
       </c>
       <c r="C41">
-        <v>-0.005927483677069332</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.001127245803017351</v>
+      </c>
+      <c r="D41">
+        <v>-0.03535104689725452</v>
+      </c>
+      <c r="E41">
+        <v>0.008010561432384834</v>
+      </c>
+      <c r="F41">
+        <v>0.0136445492133478</v>
+      </c>
+      <c r="G41">
+        <v>-0.01407290765296891</v>
+      </c>
+      <c r="H41">
+        <v>0.0362342780815479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04636995122789543</v>
+        <v>-0.05636246786564158</v>
       </c>
       <c r="C43">
-        <v>-0.02520349071923252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01681325438766974</v>
+      </c>
+      <c r="D43">
+        <v>-0.02610280515628249</v>
+      </c>
+      <c r="E43">
+        <v>0.01612007087972171</v>
+      </c>
+      <c r="F43">
+        <v>-0.01071325099465999</v>
+      </c>
+      <c r="G43">
+        <v>0.0059677160110809</v>
+      </c>
+      <c r="H43">
+        <v>0.05011237860356205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09489876835714443</v>
+        <v>-0.09221333130243885</v>
       </c>
       <c r="C44">
-        <v>-0.09351442779790722</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06167206327482083</v>
+      </c>
+      <c r="D44">
+        <v>-0.06730454473620774</v>
+      </c>
+      <c r="E44">
+        <v>0.08311251559924623</v>
+      </c>
+      <c r="F44">
+        <v>-0.04434817741217909</v>
+      </c>
+      <c r="G44">
+        <v>-0.02242599099503306</v>
+      </c>
+      <c r="H44">
+        <v>0.02640783052683707</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02491353651807832</v>
+        <v>-0.03137204765316312</v>
       </c>
       <c r="C46">
-        <v>-0.01321788640740295</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.008848968034965196</v>
+      </c>
+      <c r="D46">
+        <v>-0.03341361365526058</v>
+      </c>
+      <c r="E46">
+        <v>0.02130488490334332</v>
+      </c>
+      <c r="F46">
+        <v>-0.01616574454997726</v>
+      </c>
+      <c r="G46">
+        <v>-0.007640705075418657</v>
+      </c>
+      <c r="H46">
+        <v>0.03614204412174588</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.02717404325412002</v>
+        <v>-0.03536551498926418</v>
       </c>
       <c r="C47">
-        <v>-0.02514021969912749</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01962207836117476</v>
+      </c>
+      <c r="D47">
+        <v>-0.01799212828649238</v>
+      </c>
+      <c r="E47">
+        <v>0.04906742057827908</v>
+      </c>
+      <c r="F47">
+        <v>-0.01237770595967619</v>
+      </c>
+      <c r="G47">
+        <v>0.03918445160325364</v>
+      </c>
+      <c r="H47">
+        <v>0.03000854401107188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03145295508278412</v>
+        <v>-0.03709150385181603</v>
       </c>
       <c r="C48">
-        <v>-0.01575182472081857</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.009038241462342672</v>
+      </c>
+      <c r="D48">
+        <v>-0.02231701697134614</v>
+      </c>
+      <c r="E48">
+        <v>0.04412913957625005</v>
+      </c>
+      <c r="F48">
+        <v>-0.002169590064279524</v>
+      </c>
+      <c r="G48">
+        <v>-0.01263013472656648</v>
+      </c>
+      <c r="H48">
+        <v>0.0539320040416353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1638971138363567</v>
+        <v>-0.1923273096972721</v>
       </c>
       <c r="C49">
-        <v>-0.06472806012559189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.03729334766454636</v>
+      </c>
+      <c r="D49">
+        <v>-0.02658367054098863</v>
+      </c>
+      <c r="E49">
+        <v>-0.1350852662219015</v>
+      </c>
+      <c r="F49">
+        <v>-0.06626636581463359</v>
+      </c>
+      <c r="G49">
+        <v>0.07671548721492347</v>
+      </c>
+      <c r="H49">
+        <v>-0.2245841301232682</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03741531664433546</v>
+        <v>-0.04397592309077687</v>
       </c>
       <c r="C50">
-        <v>-0.02186225364425609</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01496623937488539</v>
+      </c>
+      <c r="D50">
+        <v>-0.03328733918312712</v>
+      </c>
+      <c r="E50">
+        <v>0.05138538218518501</v>
+      </c>
+      <c r="F50">
+        <v>-0.01294465060681711</v>
+      </c>
+      <c r="G50">
+        <v>0.01175188654722371</v>
+      </c>
+      <c r="H50">
+        <v>0.07039263537857986</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02586370585202901</v>
+        <v>-0.02809358602021881</v>
       </c>
       <c r="C51">
-        <v>-0.009468890336401286</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.00536347986856375</v>
+      </c>
+      <c r="D51">
+        <v>-0.02183478738085995</v>
+      </c>
+      <c r="E51">
+        <v>0.01667140379881545</v>
+      </c>
+      <c r="F51">
+        <v>-0.009333094168159143</v>
+      </c>
+      <c r="G51">
+        <v>-0.002572841820756646</v>
+      </c>
+      <c r="H51">
+        <v>-0.002574172668906805</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1507055425513392</v>
+        <v>-0.1613872365455383</v>
       </c>
       <c r="C53">
-        <v>-0.08103031597144411</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.05163241724325428</v>
+      </c>
+      <c r="D53">
+        <v>-0.02185049999596158</v>
+      </c>
+      <c r="E53">
+        <v>-0.03422646490870212</v>
+      </c>
+      <c r="F53">
+        <v>-0.01413924840688553</v>
+      </c>
+      <c r="G53">
+        <v>-0.006038744555360471</v>
+      </c>
+      <c r="H53">
+        <v>0.1458608468342704</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05565472821687643</v>
+        <v>-0.05671435045674997</v>
       </c>
       <c r="C54">
-        <v>-0.02382364313967265</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01132676716014169</v>
+      </c>
+      <c r="D54">
+        <v>-0.01924992167121668</v>
+      </c>
+      <c r="E54">
+        <v>0.04898793628612255</v>
+      </c>
+      <c r="F54">
+        <v>-0.006192312300565272</v>
+      </c>
+      <c r="G54">
+        <v>-0.01895736725656544</v>
+      </c>
+      <c r="H54">
+        <v>0.06557029517520266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09908472623496782</v>
+        <v>-0.1026971152015546</v>
       </c>
       <c r="C55">
-        <v>-0.05617086306353352</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03586467448556189</v>
+      </c>
+      <c r="D55">
+        <v>-0.02564544046443667</v>
+      </c>
+      <c r="E55">
+        <v>0.01177915354366128</v>
+      </c>
+      <c r="F55">
+        <v>-0.01456697752942266</v>
+      </c>
+      <c r="G55">
+        <v>-0.0179358035938566</v>
+      </c>
+      <c r="H55">
+        <v>0.1454164901119838</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1467964397564026</v>
+        <v>-0.1594403940381502</v>
       </c>
       <c r="C56">
-        <v>-0.09231245858606973</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.06338589415377163</v>
+      </c>
+      <c r="D56">
+        <v>-0.01924292375255953</v>
+      </c>
+      <c r="E56">
+        <v>-0.03480681176171434</v>
+      </c>
+      <c r="F56">
+        <v>-0.02974376736557583</v>
+      </c>
+      <c r="G56">
+        <v>-0.001677226011826838</v>
+      </c>
+      <c r="H56">
+        <v>0.1534322966139739</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1199424660639995</v>
+        <v>-0.09693159676330919</v>
       </c>
       <c r="C58">
-        <v>-0.004462004269028918</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.03505533275118121</v>
+      </c>
+      <c r="D58">
+        <v>-0.04431612171439198</v>
+      </c>
+      <c r="E58">
+        <v>0.1611967940007037</v>
+      </c>
+      <c r="F58">
+        <v>-0.005070365780235351</v>
+      </c>
+      <c r="G58">
+        <v>0.06195744207499474</v>
+      </c>
+      <c r="H58">
+        <v>-0.1364546691691587</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1179347928117068</v>
+        <v>-0.1407068453563818</v>
       </c>
       <c r="C59">
-        <v>-0.07934781532695402</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08651897750431346</v>
+      </c>
+      <c r="D59">
+        <v>0.3624668583337269</v>
+      </c>
+      <c r="E59">
+        <v>0.04461126981630564</v>
+      </c>
+      <c r="F59">
+        <v>-0.01254846179536191</v>
+      </c>
+      <c r="G59">
+        <v>0.04247637013689774</v>
+      </c>
+      <c r="H59">
+        <v>-0.0009650874429397759</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2012741080913118</v>
+        <v>-0.230499049001527</v>
       </c>
       <c r="C60">
-        <v>-0.1033441976464701</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.06888492906255506</v>
+      </c>
+      <c r="D60">
+        <v>-0.03988082341551449</v>
+      </c>
+      <c r="E60">
+        <v>-0.08078226126852171</v>
+      </c>
+      <c r="F60">
+        <v>-0.06383121658079412</v>
+      </c>
+      <c r="G60">
+        <v>-0.01031097795163616</v>
+      </c>
+      <c r="H60">
+        <v>-0.1723786225960687</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07982797535403184</v>
+        <v>-0.08739467713233964</v>
       </c>
       <c r="C61">
-        <v>-0.05020325397953554</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03249132634849736</v>
+      </c>
+      <c r="D61">
+        <v>-0.04781430719970351</v>
+      </c>
+      <c r="E61">
+        <v>-0.01209720098790739</v>
+      </c>
+      <c r="F61">
+        <v>-0.005879032283171649</v>
+      </c>
+      <c r="G61">
+        <v>-0.001004314706930125</v>
+      </c>
+      <c r="H61">
+        <v>0.07156754076165352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1280941969867824</v>
+        <v>-0.1391897457475631</v>
       </c>
       <c r="C62">
-        <v>-0.06875603357180024</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.04339917757030845</v>
+      </c>
+      <c r="D62">
+        <v>-0.02671228918988629</v>
+      </c>
+      <c r="E62">
+        <v>-0.05833503345993903</v>
+      </c>
+      <c r="F62">
+        <v>-0.008837260863205579</v>
+      </c>
+      <c r="G62">
+        <v>-0.04039557995618633</v>
+      </c>
+      <c r="H62">
+        <v>0.1509150638194011</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05370236851830965</v>
+        <v>-0.05213022443787768</v>
       </c>
       <c r="C63">
-        <v>-0.02680354423978006</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.0134950591272908</v>
+      </c>
+      <c r="D63">
+        <v>-0.02273994730236328</v>
+      </c>
+      <c r="E63">
+        <v>0.05254609774008351</v>
+      </c>
+      <c r="F63">
+        <v>0.0061470877208036</v>
+      </c>
+      <c r="G63">
+        <v>-0.03901089772623197</v>
+      </c>
+      <c r="H63">
+        <v>0.06940517074818847</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1101210594591843</v>
+        <v>-0.1113923980772672</v>
       </c>
       <c r="C64">
-        <v>-0.02897065427986765</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.004495557209881129</v>
+      </c>
+      <c r="D64">
+        <v>-0.04153517500945131</v>
+      </c>
+      <c r="E64">
+        <v>0.03178755118985348</v>
+      </c>
+      <c r="F64">
+        <v>-0.04504090815995069</v>
+      </c>
+      <c r="G64">
+        <v>-0.04352537648580709</v>
+      </c>
+      <c r="H64">
+        <v>0.06232681764862531</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1208404696475658</v>
+        <v>-0.1267601860543961</v>
       </c>
       <c r="C65">
-        <v>-0.06004065181434726</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03662520268884669</v>
+      </c>
+      <c r="D65">
+        <v>-0.004757254288749231</v>
+      </c>
+      <c r="E65">
+        <v>0.0003448558461578497</v>
+      </c>
+      <c r="F65">
+        <v>-0.0676667024455514</v>
+      </c>
+      <c r="G65">
+        <v>-0.05357126667518831</v>
+      </c>
+      <c r="H65">
+        <v>-0.08562785379710022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1449438031293579</v>
+        <v>-0.1562188568870252</v>
       </c>
       <c r="C66">
-        <v>-0.07756491836713392</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.04383322719461925</v>
+      </c>
+      <c r="D66">
+        <v>-0.1051694550895222</v>
+      </c>
+      <c r="E66">
+        <v>-0.04719262557581443</v>
+      </c>
+      <c r="F66">
+        <v>-0.01920418266836417</v>
+      </c>
+      <c r="G66">
+        <v>-0.04167675792887296</v>
+      </c>
+      <c r="H66">
+        <v>0.1456963851057113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0733802560173912</v>
+        <v>-0.0818332408897319</v>
       </c>
       <c r="C67">
-        <v>-0.01547209381196425</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.005257256291936655</v>
+      </c>
+      <c r="D67">
+        <v>-0.02683611274529031</v>
+      </c>
+      <c r="E67">
+        <v>0.03177553510609227</v>
+      </c>
+      <c r="F67">
+        <v>-0.008764084454824721</v>
+      </c>
+      <c r="G67">
+        <v>0.002815520058063902</v>
+      </c>
+      <c r="H67">
+        <v>0.02699942655297723</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06007208080727626</v>
+        <v>-0.06250298574289787</v>
       </c>
       <c r="C68">
-        <v>-0.04983692754960433</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.0552757868213126</v>
+      </c>
+      <c r="D68">
+        <v>0.2643435040566561</v>
+      </c>
+      <c r="E68">
+        <v>0.04555678637819246</v>
+      </c>
+      <c r="F68">
+        <v>-0.01506396409694464</v>
+      </c>
+      <c r="G68">
+        <v>0.0161990712896486</v>
+      </c>
+      <c r="H68">
+        <v>0.01416618404420897</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05223488320890764</v>
+        <v>-0.05200189494576059</v>
       </c>
       <c r="C69">
-        <v>-0.01907005942719621</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.004912431610273106</v>
+      </c>
+      <c r="D69">
+        <v>-0.01769821474255623</v>
+      </c>
+      <c r="E69">
+        <v>0.02547568949355841</v>
+      </c>
+      <c r="F69">
+        <v>0.007369264271942165</v>
+      </c>
+      <c r="G69">
+        <v>0.01183947299529828</v>
+      </c>
+      <c r="H69">
+        <v>0.05417508448409441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004991448493587904</v>
+        <v>-0.02575605209636346</v>
       </c>
       <c r="C70">
-        <v>0.00453150358419018</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-2.364193554341822e-05</v>
+      </c>
+      <c r="D70">
+        <v>-0.0001799074259297995</v>
+      </c>
+      <c r="E70">
+        <v>-0.02596231808871641</v>
+      </c>
+      <c r="F70">
+        <v>-0.02571753203254995</v>
+      </c>
+      <c r="G70">
+        <v>0.02706689324943298</v>
+      </c>
+      <c r="H70">
+        <v>-0.05768059910419124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06192183522013647</v>
+        <v>-0.06634073296412711</v>
       </c>
       <c r="C71">
-        <v>-0.05049631011455562</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05781564443305815</v>
+      </c>
+      <c r="D71">
+        <v>0.2926009012123768</v>
+      </c>
+      <c r="E71">
+        <v>0.04044063235834641</v>
+      </c>
+      <c r="F71">
+        <v>-0.0491611552605934</v>
+      </c>
+      <c r="G71">
+        <v>0.00252244697937522</v>
+      </c>
+      <c r="H71">
+        <v>0.02012380607215893</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1404954675203922</v>
+        <v>-0.1521382078851801</v>
       </c>
       <c r="C72">
-        <v>-0.06511943568133492</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.0383521546477844</v>
+      </c>
+      <c r="D72">
+        <v>0.009741384738353405</v>
+      </c>
+      <c r="E72">
+        <v>-0.1066246099152275</v>
+      </c>
+      <c r="F72">
+        <v>0.1606711727664463</v>
+      </c>
+      <c r="G72">
+        <v>-0.1134527716924136</v>
+      </c>
+      <c r="H72">
+        <v>0.0162813421226795</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.26520131297558</v>
+        <v>-0.2855236003068566</v>
       </c>
       <c r="C73">
-        <v>-0.1149647548532011</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.05557028620691207</v>
+      </c>
+      <c r="D73">
+        <v>-0.09617953167979355</v>
+      </c>
+      <c r="E73">
+        <v>-0.1993214905901309</v>
+      </c>
+      <c r="F73">
+        <v>-0.1092133532826819</v>
+      </c>
+      <c r="G73">
+        <v>0.2191056294833617</v>
+      </c>
+      <c r="H73">
+        <v>-0.5085559724841701</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07929938615768871</v>
+        <v>-0.09095917155472195</v>
       </c>
       <c r="C74">
-        <v>-0.0779790948010896</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.05887702555518681</v>
+      </c>
+      <c r="D74">
+        <v>-0.02988121580424312</v>
+      </c>
+      <c r="E74">
+        <v>-0.006963819038716381</v>
+      </c>
+      <c r="F74">
+        <v>0.01456963758500098</v>
+      </c>
+      <c r="G74">
+        <v>0.02786247826732204</v>
+      </c>
+      <c r="H74">
+        <v>0.1232876258042246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09493687625129991</v>
+        <v>-0.1008468320121085</v>
       </c>
       <c r="C75">
-        <v>-0.05321270730803614</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02847779851075732</v>
+      </c>
+      <c r="D75">
+        <v>-0.009133781610274424</v>
+      </c>
+      <c r="E75">
+        <v>0.01066764867264081</v>
+      </c>
+      <c r="F75">
+        <v>-0.03633390599961777</v>
+      </c>
+      <c r="G75">
+        <v>0.002608903319543326</v>
+      </c>
+      <c r="H75">
+        <v>0.1152996929401213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1285372705562386</v>
+        <v>-0.1381571160127498</v>
       </c>
       <c r="C76">
-        <v>-0.08436169081183714</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0553576820505492</v>
+      </c>
+      <c r="D76">
+        <v>-0.05464269291758795</v>
+      </c>
+      <c r="E76">
+        <v>0.02120484577176262</v>
+      </c>
+      <c r="F76">
+        <v>-0.04503975791013321</v>
+      </c>
+      <c r="G76">
+        <v>-0.008863874990437165</v>
+      </c>
+      <c r="H76">
+        <v>0.1492215039775334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1216128889700907</v>
+        <v>-0.1134216738953556</v>
       </c>
       <c r="C77">
-        <v>-0.0283686102103667</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.00369323856565478</v>
+      </c>
+      <c r="D77">
+        <v>-0.01679954284008798</v>
+      </c>
+      <c r="E77">
+        <v>-0.01045896080522757</v>
+      </c>
+      <c r="F77">
+        <v>-0.1655230680838415</v>
+      </c>
+      <c r="G77">
+        <v>-0.877758766955934</v>
+      </c>
+      <c r="H77">
+        <v>-0.2411197524106151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.09542684578080612</v>
+        <v>-0.1302986992234444</v>
       </c>
       <c r="C78">
-        <v>-0.04203884562568018</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03285256900194986</v>
+      </c>
+      <c r="D78">
+        <v>-0.09035800621582678</v>
+      </c>
+      <c r="E78">
+        <v>0.06080869739471622</v>
+      </c>
+      <c r="F78">
+        <v>-0.02207372589731474</v>
+      </c>
+      <c r="G78">
+        <v>-0.04155845555034571</v>
+      </c>
+      <c r="H78">
+        <v>-0.07563694599696694</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1465750401198946</v>
+        <v>-0.1526198875273741</v>
       </c>
       <c r="C79">
-        <v>-0.08189553105934942</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.04651975268318145</v>
+      </c>
+      <c r="D79">
+        <v>-0.0292256875080728</v>
+      </c>
+      <c r="E79">
+        <v>-0.01404317209064242</v>
+      </c>
+      <c r="F79">
+        <v>-0.009999476600894047</v>
+      </c>
+      <c r="G79">
+        <v>0.01409405235192737</v>
+      </c>
+      <c r="H79">
+        <v>0.1672854478773849</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04245164017433101</v>
+        <v>-0.04139817769728579</v>
       </c>
       <c r="C80">
-        <v>-0.01501699947545371</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.005409379675619142</v>
+      </c>
+      <c r="D80">
+        <v>-0.02308267198131991</v>
+      </c>
+      <c r="E80">
+        <v>-0.01252175850386164</v>
+      </c>
+      <c r="F80">
+        <v>0.01638117949154633</v>
+      </c>
+      <c r="G80">
+        <v>0.03871481294128283</v>
+      </c>
+      <c r="H80">
+        <v>0.0408066682832582</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1175528578332659</v>
+        <v>-0.1210650263502207</v>
       </c>
       <c r="C81">
-        <v>-0.06553709628744402</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03548096928494717</v>
+      </c>
+      <c r="D81">
+        <v>-0.02741707914614388</v>
+      </c>
+      <c r="E81">
+        <v>0.01298240501127032</v>
+      </c>
+      <c r="F81">
+        <v>-0.01811325604973119</v>
+      </c>
+      <c r="G81">
+        <v>0.03356734895175568</v>
+      </c>
+      <c r="H81">
+        <v>0.1765620741618286</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1263288937835677</v>
+        <v>-0.1286378659672339</v>
       </c>
       <c r="C82">
-        <v>-0.07825623801580071</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.04813172089709206</v>
+      </c>
+      <c r="D82">
+        <v>-0.03005013380153498</v>
+      </c>
+      <c r="E82">
+        <v>-0.01287956201095784</v>
+      </c>
+      <c r="F82">
+        <v>-0.05447777391388862</v>
+      </c>
+      <c r="G82">
+        <v>0.02528731213890836</v>
+      </c>
+      <c r="H82">
+        <v>0.1799992110977525</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0785345703435842</v>
+        <v>-0.08631851713394777</v>
       </c>
       <c r="C83">
-        <v>0.001911227588865671</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.01862098159029692</v>
+      </c>
+      <c r="D83">
+        <v>-0.0410626450276971</v>
+      </c>
+      <c r="E83">
+        <v>0.019894708865976</v>
+      </c>
+      <c r="F83">
+        <v>-0.06144963793516008</v>
+      </c>
+      <c r="G83">
+        <v>0.1007838127498233</v>
+      </c>
+      <c r="H83">
+        <v>-0.05916670021361048</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02909678641404823</v>
+        <v>-0.03946907537140518</v>
       </c>
       <c r="C84">
-        <v>-0.0248944626664632</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01873480802575414</v>
+      </c>
+      <c r="D84">
+        <v>-0.03286022148981153</v>
+      </c>
+      <c r="E84">
+        <v>0.02256510308749909</v>
+      </c>
+      <c r="F84">
+        <v>0.05189702041655023</v>
+      </c>
+      <c r="G84">
+        <v>0.06237707420488158</v>
+      </c>
+      <c r="H84">
+        <v>0.02377452723668095</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1181897271525999</v>
+        <v>-0.1189828547769598</v>
       </c>
       <c r="C85">
-        <v>-0.06102595409586715</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03040721538651474</v>
+      </c>
+      <c r="D85">
+        <v>-0.02944360850121525</v>
+      </c>
+      <c r="E85">
+        <v>0.01738033660993593</v>
+      </c>
+      <c r="F85">
+        <v>-0.04010418869080692</v>
+      </c>
+      <c r="G85">
+        <v>0.004976241063900502</v>
+      </c>
+      <c r="H85">
+        <v>0.1442459893535285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05027706138288556</v>
+        <v>-0.05643452847830026</v>
       </c>
       <c r="C86">
-        <v>-0.0306264457855854</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01917457348930903</v>
+      </c>
+      <c r="D86">
+        <v>-0.02297467817744366</v>
+      </c>
+      <c r="E86">
+        <v>0.04965237442043705</v>
+      </c>
+      <c r="F86">
+        <v>-0.02695497001699854</v>
+      </c>
+      <c r="G86">
+        <v>0.004760515783342583</v>
+      </c>
+      <c r="H86">
+        <v>0.02111332077666348</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1211192062869663</v>
+        <v>-0.1224294770484266</v>
       </c>
       <c r="C87">
-        <v>-0.07219102606278217</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03690813187889296</v>
+      </c>
+      <c r="D87">
+        <v>-0.07542255746136992</v>
+      </c>
+      <c r="E87">
+        <v>0.01677058506790492</v>
+      </c>
+      <c r="F87">
+        <v>-0.004184203256261065</v>
+      </c>
+      <c r="G87">
+        <v>-0.1082813056538994</v>
+      </c>
+      <c r="H87">
+        <v>-0.02084772277058723</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05374141791745603</v>
+        <v>-0.06007251779618938</v>
       </c>
       <c r="C88">
-        <v>-0.03203246038410059</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02062172929608487</v>
+      </c>
+      <c r="D88">
+        <v>-0.0267443223837151</v>
+      </c>
+      <c r="E88">
+        <v>0.01725608123410852</v>
+      </c>
+      <c r="F88">
+        <v>-0.006193221426655015</v>
+      </c>
+      <c r="G88">
+        <v>-0.01554434988453858</v>
+      </c>
+      <c r="H88">
+        <v>0.05880639052957287</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08449506265384513</v>
+        <v>-0.09864209294720569</v>
       </c>
       <c r="C89">
-        <v>-0.06682886506987443</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07699909485157128</v>
+      </c>
+      <c r="D89">
+        <v>0.3360566568365063</v>
+      </c>
+      <c r="E89">
+        <v>0.08109868288828621</v>
+      </c>
+      <c r="F89">
+        <v>-0.07952800471226673</v>
+      </c>
+      <c r="G89">
+        <v>0.01979534069978123</v>
+      </c>
+      <c r="H89">
+        <v>0.01209952139151404</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07345582448702243</v>
+        <v>-0.08262614512764335</v>
       </c>
       <c r="C90">
-        <v>-0.05841137399586226</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.065135903272414</v>
+      </c>
+      <c r="D90">
+        <v>0.3069098498641698</v>
+      </c>
+      <c r="E90">
+        <v>0.06538651852429819</v>
+      </c>
+      <c r="F90">
+        <v>-0.01114374264309671</v>
+      </c>
+      <c r="G90">
+        <v>0.003999050068586764</v>
+      </c>
+      <c r="H90">
+        <v>0.01767041249081642</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08429641445221225</v>
+        <v>-0.08872154701315554</v>
       </c>
       <c r="C91">
-        <v>-0.05456107194590119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03347623578543728</v>
+      </c>
+      <c r="D91">
+        <v>-0.03037550120931829</v>
+      </c>
+      <c r="E91">
+        <v>0.01281922534669349</v>
+      </c>
+      <c r="F91">
+        <v>-0.003531434488169358</v>
+      </c>
+      <c r="G91">
+        <v>0.04219460622713547</v>
+      </c>
+      <c r="H91">
+        <v>0.0738226741153086</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.0808032133249106</v>
+        <v>-0.08919685084965491</v>
       </c>
       <c r="C92">
-        <v>-0.07726147415237229</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.08396860788046517</v>
+      </c>
+      <c r="D92">
+        <v>0.3424682265196099</v>
+      </c>
+      <c r="E92">
+        <v>0.0586847025410242</v>
+      </c>
+      <c r="F92">
+        <v>-0.03650831089762042</v>
+      </c>
+      <c r="G92">
+        <v>-0.006000881432707864</v>
+      </c>
+      <c r="H92">
+        <v>0.01637206700075883</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06605411334984425</v>
+        <v>-0.08073668439632334</v>
       </c>
       <c r="C93">
-        <v>-0.06308241854258066</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.07488687948755879</v>
+      </c>
+      <c r="D93">
+        <v>0.3035093979159073</v>
+      </c>
+      <c r="E93">
+        <v>0.03846428029953892</v>
+      </c>
+      <c r="F93">
+        <v>-0.04972158072992432</v>
+      </c>
+      <c r="G93">
+        <v>-0.006215458753649857</v>
+      </c>
+      <c r="H93">
+        <v>-0.003657960101837539</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1330810857918319</v>
+        <v>-0.1269534052343285</v>
       </c>
       <c r="C94">
-        <v>-0.05818123244775113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02045119299140874</v>
+      </c>
+      <c r="D94">
+        <v>-0.04759906526165571</v>
+      </c>
+      <c r="E94">
+        <v>-0.01587614277658632</v>
+      </c>
+      <c r="F94">
+        <v>-0.02429323490789359</v>
+      </c>
+      <c r="G94">
+        <v>0.03473246159070827</v>
+      </c>
+      <c r="H94">
+        <v>0.1147166197172434</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1185260055990757</v>
+        <v>-0.1276817713217906</v>
       </c>
       <c r="C95">
-        <v>-0.03898034424487754</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.01071579655520204</v>
+      </c>
+      <c r="D95">
+        <v>-0.05597488102592765</v>
+      </c>
+      <c r="E95">
+        <v>0.004038807974946174</v>
+      </c>
+      <c r="F95">
+        <v>-0.04216054127993722</v>
+      </c>
+      <c r="G95">
+        <v>0.01756237247116522</v>
+      </c>
+      <c r="H95">
+        <v>-0.02601881071773681</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2034557356444191</v>
+        <v>-0.2128270289995472</v>
       </c>
       <c r="C97">
-        <v>-0.04710557293924068</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.01025008141687785</v>
+      </c>
+      <c r="D97">
+        <v>0.09000183059469608</v>
+      </c>
+      <c r="E97">
+        <v>-0.2411435270216774</v>
+      </c>
+      <c r="F97">
+        <v>0.8872173099536051</v>
+      </c>
+      <c r="G97">
+        <v>-0.1034927882518817</v>
+      </c>
+      <c r="H97">
+        <v>-0.02753262892972572</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2447668518068041</v>
+        <v>-0.2723521002786928</v>
       </c>
       <c r="C98">
-        <v>-0.08417236727151128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.03946325913887545</v>
+      </c>
+      <c r="D98">
+        <v>-0.06119030280644781</v>
+      </c>
+      <c r="E98">
+        <v>-0.1376360846684802</v>
+      </c>
+      <c r="F98">
+        <v>-0.06613072982750109</v>
+      </c>
+      <c r="G98">
+        <v>0.282359386531002</v>
+      </c>
+      <c r="H98">
+        <v>-0.2459319329055296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4595750380930193</v>
+        <v>-0.285197705116794</v>
       </c>
       <c r="C99">
-        <v>0.873791717528682</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9380031575279043</v>
+      </c>
+      <c r="D99">
+        <v>0.1209627369495972</v>
+      </c>
+      <c r="E99">
+        <v>0.05315105414029432</v>
+      </c>
+      <c r="F99">
+        <v>-0.04423128737479549</v>
+      </c>
+      <c r="G99">
+        <v>0.01438145876020257</v>
+      </c>
+      <c r="H99">
+        <v>0.05937874647102667</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04052752879317488</v>
+        <v>-0.04757461782016881</v>
       </c>
       <c r="C101">
-        <v>-0.03031239886804031</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02364218753427079</v>
+      </c>
+      <c r="D101">
+        <v>-0.0065002751231523</v>
+      </c>
+      <c r="E101">
+        <v>0.04708216657282703</v>
+      </c>
+      <c r="F101">
+        <v>-0.002473454414084618</v>
+      </c>
+      <c r="G101">
+        <v>-0.00140016095693232</v>
+      </c>
+      <c r="H101">
+        <v>0.08424360203868816</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
